--- a/2.xlsx
+++ b/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop other\parse data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CCCE0-3396-4435-8403-25F36630189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC8FF3-A61E-4BC7-9F57-81430FC0F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="3615" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -363,91 +363,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
     </row>
